--- a/biology/Zoologie/Ianthella_basta/Ianthella_basta.xlsx
+++ b/biology/Zoologie/Ianthella_basta/Ianthella_basta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ianthella basta est une espèce d'éponge de la famille des  Ianthellidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1766 par Peter Simon Pallas sous le nom Spongia basta.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans le bassin Indo-Pacifique, notamment sur les côtes du Mozambique, dans les eaux indonésiennes et sur la Grande Barrière de corail[1]. I. basta occupe les pentes de récifs coralliens dans des zones aux forts courants[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans le bassin Indo-Pacifique, notamment sur les côtes du Mozambique, dans les eaux indonésiennes et sur la Grande Barrière de corail. I. basta occupe les pentes de récifs coralliens dans des zones aux forts courants.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concombre de mer Synaptula lamperti est une espèce fortement associée à I. basta et partage son habitat : cette espèce se nourrit des nutriments rejetés par l'éponge[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concombre de mer Synaptula lamperti est une espèce fortement associée à I. basta et partage son habitat : cette espèce se nourrit des nutriments rejetés par l'éponge.
 </t>
         </is>
       </c>
